--- a/Out/OPCIONES PARA IAV - 1.xlsx
+++ b/Out/OPCIONES PARA IAV - 1.xlsx
@@ -475,17 +475,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -495,17 +487,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -515,17 +499,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -535,17 +511,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -558,13 +526,13 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -578,13 +546,13 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -598,13 +566,13 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -618,13 +586,13 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -635,26 +603,10 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -663,26 +615,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -691,26 +627,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -719,26 +639,10 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -843,10 +747,26 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -855,16 +775,24 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -875,16 +803,24 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -895,16 +831,24 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -917,13 +861,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -937,13 +881,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -957,13 +901,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -977,13 +921,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1077,17 +1021,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -1097,17 +1033,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -1117,17 +1045,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -1137,17 +1057,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -1159,24 +1071,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1187,24 +1091,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1215,24 +1111,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1243,24 +1131,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1269,11 +1149,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1281,11 +1177,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1293,11 +1205,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1305,11 +1233,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1317,17 +1261,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -1337,17 +1273,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -1357,17 +1285,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -1377,17 +1297,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -1447,13 +1359,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1467,24 +1379,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1495,24 +1399,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1523,24 +1419,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1679,17 +1567,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -1699,17 +1579,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -1719,17 +1591,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -1739,17 +1603,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -1762,13 +1618,13 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1782,13 +1638,13 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1802,13 +1658,13 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1822,13 +1678,13 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1839,27 +1695,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1867,27 +1723,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1895,27 +1751,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1923,27 +1779,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2047,17 +1903,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -2067,26 +1915,10 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2095,26 +1927,10 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2123,26 +1939,10 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2151,9 +1951,17 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -2163,9 +1971,17 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -2175,9 +1991,17 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -2187,9 +2011,17 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -2281,17 +2113,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -2301,17 +2125,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -2321,17 +2137,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -2341,17 +2149,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -2362,9 +2162,17 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2374,9 +2182,17 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2386,9 +2202,17 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2398,9 +2222,17 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2409,27 +2241,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2437,27 +2269,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2465,27 +2297,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2493,27 +2325,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2522,17 +2354,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2542,17 +2366,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2562,17 +2378,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -2582,17 +2390,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -2649,9 +2449,17 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -2661,18 +2469,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2681,18 +2489,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2701,18 +2509,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2721,17 +2529,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -2741,17 +2541,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -2761,17 +2553,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -2781,17 +2565,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -2883,17 +2659,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -2903,17 +2671,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -2923,17 +2683,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -2943,17 +2695,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -2964,9 +2708,17 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2976,9 +2728,17 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2988,9 +2748,17 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3000,9 +2768,17 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -3013,25 +2789,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3041,25 +2817,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3069,25 +2845,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3097,25 +2873,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3124,17 +2900,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3144,17 +2912,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3164,17 +2924,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3184,17 +2936,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3251,17 +2995,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -3271,26 +3007,10 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3299,26 +3019,10 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3327,26 +3031,10 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3355,9 +3043,17 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -3367,9 +3063,17 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -3379,9 +3083,17 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -3391,9 +3103,17 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -3485,17 +3205,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -3505,17 +3217,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -3525,17 +3229,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -3545,17 +3241,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -3565,24 +3253,16 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -3593,24 +3273,16 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -3621,24 +3293,16 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -3649,24 +3313,16 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA4]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -3677,11 +3333,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3689,11 +3361,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3701,11 +3389,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3713,11 +3417,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3726,17 +3446,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3746,17 +3458,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3766,17 +3470,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3786,17 +3482,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3853,9 +3541,17 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -3865,18 +3561,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3885,18 +3581,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3905,18 +3601,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3925,17 +3621,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -3945,17 +3633,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -3965,17 +3645,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -3985,17 +3657,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -4087,17 +3751,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -4107,17 +3763,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -4127,17 +3775,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -4147,17 +3787,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -4169,24 +3801,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -4197,24 +3821,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -4225,24 +3841,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -4253,24 +3861,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -4328,17 +3928,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4348,17 +3940,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4368,17 +3952,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4388,17 +3964,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4457,16 +4025,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -4477,22 +4053,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -4505,22 +4081,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -4533,22 +4109,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -4559,9 +4135,17 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -4571,9 +4155,17 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -4583,9 +4175,17 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -4595,9 +4195,17 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -4689,17 +4297,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -4709,17 +4309,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -4729,17 +4321,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -4749,17 +4333,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -4769,9 +4345,17 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -4781,9 +4365,17 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -4793,9 +4385,17 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -4805,9 +4405,17 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
@@ -4817,27 +4425,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4845,27 +4453,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4873,27 +4481,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4901,27 +4509,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4929,17 +4537,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -4949,17 +4549,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -4969,17 +4561,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -4989,17 +4573,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -5070,17 +4646,9 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5090,17 +4658,9 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -5110,17 +4670,9 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -5131,13 +4683,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5151,13 +4703,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5171,13 +4723,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5191,13 +4743,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -5291,17 +4843,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -5311,17 +4855,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -5331,17 +4867,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -5351,17 +4879,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -5371,9 +4891,17 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -5383,9 +4911,17 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
@@ -5395,9 +4931,17 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -5407,9 +4951,17 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
@@ -5419,27 +4971,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5447,27 +4999,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5475,27 +5027,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5503,27 +5055,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA6]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5531,17 +5083,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -5551,17 +5095,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -5571,17 +5107,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -5591,17 +5119,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -5661,13 +5181,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -5681,24 +5201,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5709,24 +5221,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -5737,24 +5241,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS6]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -5893,17 +5389,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -5913,17 +5401,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -5933,17 +5413,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -5953,17 +5425,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -5975,24 +5439,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -6003,24 +5459,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -6031,24 +5479,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -6059,24 +5499,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDA2]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -6085,11 +5517,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6097,11 +5545,27 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6109,11 +5573,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6121,11 +5601,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6133,17 +5629,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -6153,17 +5641,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -6173,17 +5653,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -6193,17 +5665,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -6274,17 +5738,9 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -6294,17 +5750,9 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -6314,17 +5762,9 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE FOTOGRAFÍA Y VID [FOT]</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -6335,13 +5775,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -6355,13 +5795,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -6375,13 +5815,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6395,13 +5835,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
